--- a/tmp/test.xlsx
+++ b/tmp/test.xlsx
@@ -366,502 +366,502 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1.007060780582957</v>
+        <v>0.09513034197012578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.6540347596143877</v>
+        <v>0.5589935653836006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.9115364484558229</v>
+        <v>0.179183153216707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.002394670393415336</v>
+        <v>-0.9810239309194153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.004567344282734631</v>
+        <v>-0.9771011232453781</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.3079838877664786</v>
+        <v>0.7321599650937404</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.1440231663076151</v>
+        <v>0.9453769279867458</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.8501944706345224</v>
+        <v>1.886192086673164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.4853051501728413</v>
+        <v>-0.1213668416736339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-1.032190461390542</v>
+        <v>0.8342736708313182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>-1.130649810778492</v>
+        <v>0.2927386179080323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.9533575890390896</v>
+        <v>-0.02579532933650184</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.8686176601118751</v>
+        <v>-1.068705242771891</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-1.102842818326763</v>
+        <v>-0.08536203006888471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.3016101432973551</v>
+        <v>1.206140300462128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-1.095714780857402</v>
+        <v>0.3357741981292858</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.7715935720408398</v>
+        <v>-0.8410326434556215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1.374993447203637</v>
+        <v>-1.362428327490187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.3801522165340795</v>
+        <v>-1.688745006326872</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.5748886880645949</v>
+        <v>1.701578668928069</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.5564744860114139</v>
+        <v>-0.04247679410000425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2.127464891921077</v>
+        <v>-1.108085132159707</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.7578886263899361</v>
+        <v>-1.192172311422116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1.040355797346112</v>
+        <v>-0.3197129648188152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.8681896077322032</v>
+        <v>-1.551979682950493</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.9257332177300459</v>
+        <v>-0.6636336183203552</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.4266731091251315</v>
+        <v>0.4331887120058344</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.3069833267341676</v>
+        <v>-0.5325035816691174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.246792267044236</v>
+        <v>-0.2624514759049569</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.8083125318833235</v>
+        <v>-0.8376346975344786</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.5635002459848059</v>
+        <v>-1.032857427130625</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.6196758788872917</v>
+        <v>0.4795603458537879</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.5272645181281037</v>
+        <v>0.7693698674899115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.3567682129254557</v>
+        <v>1.332036011264449</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1.091609397093762</v>
+        <v>0.7810682057943544</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-1.066420529172833</v>
+        <v>-0.4814100921594954</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.3524326730811696</v>
+        <v>-1.983050220901888</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.7904697127853252</v>
+        <v>1.05356309912459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.353948619427684</v>
+        <v>-0.5212023463877942</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-1.127393029124884</v>
+        <v>-0.7065370005170349</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.4597975215976161</v>
+        <v>-0.2519404678365302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.2144165725696719</v>
+        <v>1.312638060284038</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1221431329103001</v>
+        <v>-0.2194884263240592</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.223839143323031</v>
+        <v>-1.512876085925961</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.2000852117011375</v>
+        <v>-0.9794807634274388</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.2913681797110073</v>
+        <v>-0.4228621725904865</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.746104768831016</v>
+        <v>-0.3230996637410349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1.047046130670418</v>
+        <v>0.2437365555302559</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.2419978358892641</v>
+        <v>-1.126016918747053</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.8281702249595332</v>
+        <v>0.9323844400442641</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.6306450086389986</v>
+        <v>1.63284309576397</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-0.8152575536704662</v>
+        <v>-0.9449821436751358</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.162213152636454</v>
+        <v>-0.255758934537639</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.2915580915753828</v>
+        <v>1.460509993394645</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.1180242253171288</v>
+        <v>0.2811699164240408</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.1181153832710274</v>
+        <v>-0.73979034084326</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.5340081238085918</v>
+        <v>-0.580219191822366</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-1.577675648076753</v>
+        <v>-0.5081714879734663</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.08006486837943355</v>
+        <v>-0.3237572901335843</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.5121214122371249</v>
+        <v>-1.141795934610453</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.6616164243293728</v>
+        <v>0.007742810028018223</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>2.054619549326445</v>
+        <v>0.2806183486822798</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.06133042686638658</v>
+        <v>-2.20001674783731</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.1614520451624449</v>
+        <v>-1.058109004607296</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>-1.458012007748149</v>
+        <v>0.5395147029987064</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1.810170291821775</v>
+        <v>-0.2958595280375114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.6190992558450615</v>
+        <v>-1.808601615903451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.8479144869971204</v>
+        <v>0.1765909675523519</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.03856553225144322</v>
+        <v>-0.236404388989739</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.6092869287329896</v>
+        <v>-0.4151029447814288</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.1088708525760231</v>
+        <v>2.169430754459894</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.732610317886585</v>
+        <v>-2.371737971043652</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.1396545230686449</v>
+        <v>0.3597407115648708</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.6279940442820017</v>
+        <v>-0.6492226577036521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.2400925734034215</v>
+        <v>-0.1872934061576021</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.7397377725558172</v>
+        <v>-0.2145463083110708</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.3842907951480383</v>
+        <v>0.3540682623885228</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1.413365946090077</v>
+        <v>0.02656732677893869</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.5183183237836008</v>
+        <v>-0.5864122405044219</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.2135009330679511</v>
+        <v>0.584635816385681</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.828532903697583</v>
+        <v>0.5399019091303976</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-2.10077568828921</v>
+        <v>-0.1844844588301656</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.922986138678052</v>
+        <v>0.9167120939232569</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-1.141690001397214</v>
+        <v>-0.2383156218505396</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.761801257382414</v>
+        <v>2.507082932096554</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.09116820543840351</v>
+        <v>-0.4810046492618861</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.583098165326297</v>
+        <v>0.5378675996300567</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>-1.135403271278769</v>
+        <v>0.4034084923822909</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.07916810063830129</v>
+        <v>-0.3563142297042888</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2.404871168323668</v>
+        <v>-0.8721645485616111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>-1.26234935217616</v>
+        <v>0.2349961691621218</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>-0.1787567956343156</v>
+        <v>-0.5436609743024992</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.200130788280838</v>
+        <v>2.378716980993327</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.5376296285358114</v>
+        <v>-0.4600293849153362</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-2.561346650841533</v>
+        <v>-0.9851595563544577</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-1.120488472816223</v>
+        <v>-0.3793863945472254</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.2084295952436096</v>
+        <v>-0.7560776889790067</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>-1.538999568851904</v>
+        <v>-0.8540953095280804</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.4335789916256031</v>
+        <v>-0.2639833189984657</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.6192030749679894</v>
+        <v>0.1042015534152327</v>
       </c>
     </row>
   </sheetData>

--- a/tmp/test.xlsx
+++ b/tmp/test.xlsx
@@ -366,502 +366,502 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.09513034197012578</v>
+        <v>-0.0980785425355637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.5589935653836006</v>
+        <v>-0.1514364190735767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.179183153216707</v>
+        <v>0.00738113958244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>-0.9810239309194153</v>
+        <v>2.268845985658077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.9771011232453781</v>
+        <v>0.4907455679755999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.7321599650937404</v>
+        <v>-0.1234958890279378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.9453769279867458</v>
+        <v>0.01465223160744907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.886192086673164</v>
+        <v>1.291801872064709</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.1213668416736339</v>
+        <v>-0.6771430063879997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.8342736708313182</v>
+        <v>0.3644299173590891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.2927386179080323</v>
+        <v>0.5592722065767542</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.02579532933650184</v>
+        <v>-0.3488923307473595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-1.068705242771891</v>
+        <v>-0.01234205714015493</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>-0.08536203006888471</v>
+        <v>1.673498125730121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1.206140300462128</v>
+        <v>-0.7323236781609426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.3357741981292858</v>
+        <v>-0.4623116325792404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.8410326434556215</v>
+        <v>-1.899358351963713</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-1.362428327490187</v>
+        <v>0.09347375950790969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-1.688745006326872</v>
+        <v>-0.9302715464123723</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1.701578668928069</v>
+        <v>0.1584588187383063</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.04247679410000425</v>
+        <v>-0.9843541485980002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-1.108085132159707</v>
+        <v>-0.2104898713894054</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-1.192172311422116</v>
+        <v>0.3878926126056124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.3197129648188152</v>
+        <v>-1.495491715701065</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-1.551979682950493</v>
+        <v>-0.685255070584581</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.6636336183203552</v>
+        <v>-0.7794240003660822</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.4331887120058344</v>
+        <v>-0.9663541386970418</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.5325035816691174</v>
+        <v>0.7177660394719592</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>-0.2624514759049569</v>
+        <v>1.49995569590615</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.8376346975344786</v>
+        <v>-1.08017233486652</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-1.032857427130625</v>
+        <v>0.5900111472842022</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.4795603458537879</v>
+        <v>0.01726437949701197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.7693698674899115</v>
+        <v>0.0782087494318273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1.332036011264449</v>
+        <v>-1.07421879775871</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.7810682057943544</v>
+        <v>-0.4480203029123199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>-0.4814100921594954</v>
+        <v>1.876288017553619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>-1.983050220901888</v>
+        <v>0.224205745133267</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1.05356309912459</v>
+        <v>-0.6181178889645886</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.5212023463877942</v>
+        <v>-1.028752894871207</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.7065370005170349</v>
+        <v>0.1540715549487431</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.2519404678365302</v>
+        <v>-0.4093067927722912</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.312638060284038</v>
+        <v>-0.2899394532898352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>-0.2194884263240592</v>
+        <v>0.9255481675324513</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-1.512876085925961</v>
+        <v>1.512847676353668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.9794807634274388</v>
+        <v>1.066224944972159</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.4228621725904865</v>
+        <v>0.9178880939328281</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.3230996637410349</v>
+        <v>-0.1080244372834013</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.2437365555302559</v>
+        <v>0.5540659209104916</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-1.126016918747053</v>
+        <v>2.054541726436573</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.9323844400442641</v>
+        <v>-0.7089464241830619</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1.63284309576397</v>
+        <v>0.464839991395863</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-0.9449821436751358</v>
+        <v>1.412490995319735</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>-0.255758934537639</v>
+        <v>1.625687869573339</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1.460509993394645</v>
+        <v>-2.788080325383982</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.2811699164240408</v>
+        <v>0.5562577649485767</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.73979034084326</v>
+        <v>1.076910203642947</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.580219191822366</v>
+        <v>1.790915035803732</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.5081714879734663</v>
+        <v>1.511881978206633</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.3237572901335843</v>
+        <v>-0.6606507629794787</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-1.141795934610453</v>
+        <v>0.2951670930207461</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.007742810028018223</v>
+        <v>-0.2814129805710096</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.2806183486822798</v>
+        <v>-1.022912892189639</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>-2.20001674783731</v>
+        <v>0.7224881639387016</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-1.058109004607296</v>
+        <v>1.781776150506758</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.5395147029987064</v>
+        <v>1.143663134341351</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>-0.2958595280375114</v>
+        <v>0.5561662728855955</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-1.808601615903451</v>
+        <v>0.7042336746641259</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.1765909675523519</v>
+        <v>-0.1273273879179805</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-0.236404388989739</v>
+        <v>1.004552350619622</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.4151029447814288</v>
+        <v>0.6428588758408436</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>2.169430754459894</v>
+        <v>-0.8551864472065447</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-2.371737971043652</v>
+        <v>0.6824308330762351</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.3597407115648708</v>
+        <v>0.01656869640381406</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.6492226577036521</v>
+        <v>-0.01083881323703952</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.1872934061576021</v>
+        <v>0.8108385259336605</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.2145463083110708</v>
+        <v>0.07016997818684188</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.3540682623885228</v>
+        <v>-2.01276263877312</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.02656732677893869</v>
+        <v>-0.8701641763796962</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-0.5864122405044219</v>
+        <v>0.7298828087800537</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.584635816385681</v>
+        <v>-0.6272237100621399</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.5399019091303976</v>
+        <v>-0.9671059001300847</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.1844844588301656</v>
+        <v>0.1603844804909463</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.9167120939232569</v>
+        <v>1.023179897734944</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.2383156218505396</v>
+        <v>1.1696817187027</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2.507082932096554</v>
+        <v>-0.1395989598177257</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>-0.4810046492618861</v>
+        <v>1.627750871161111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.5378675996300567</v>
+        <v>0.09564727574008391</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.4034084923822909</v>
+        <v>0.6619512251324586</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.3563142297042888</v>
+        <v>0.04973403848346616</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>-0.8721645485616111</v>
+        <v>0.7234573604331017</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.2349961691621218</v>
+        <v>1.24550195893791</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>-0.5436609743024992</v>
+        <v>0.2394206016100816</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2.378716980993327</v>
+        <v>0.07903682148170271</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.4600293849153362</v>
+        <v>-0.2642815731742634</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.9851595563544577</v>
+        <v>-0.05020896749341817</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.3793863945472254</v>
+        <v>0.6201582399047361</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.7560776889790067</v>
+        <v>-0.9352708095256365</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>-0.8540953095280804</v>
+        <v>-0.05849730371611115</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>-0.2639833189984657</v>
+        <v>0.1125630961673264</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.1042015534152327</v>
+        <v>-0.681720839037018</v>
       </c>
     </row>
   </sheetData>

--- a/tmp/test.xlsx
+++ b/tmp/test.xlsx
@@ -366,502 +366,502 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.0980785425355637</v>
+        <v>-0.7612433418221922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.1514364190735767</v>
+        <v>-0.999386266755414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.00738113958244</v>
+        <v>-0.03092418987812458</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2.268845985658077</v>
+        <v>0.1086844243807098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.4907455679755999</v>
+        <v>0.07551842454637327</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.1234958890279378</v>
+        <v>-0.09421582915471732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.01465223160744907</v>
+        <v>-1.082462320999063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.291801872064709</v>
+        <v>-0.1576373073577497</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.6771430063879997</v>
+        <v>-0.1921878897473422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.3644299173590891</v>
+        <v>-0.2050943978265358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.5592722065767542</v>
+        <v>0.2754756345949099</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.3488923307473595</v>
+        <v>-1.278355971378608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>-0.01234205714015493</v>
+        <v>1.110244239486315</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1.673498125730121</v>
+        <v>0.5205698315601103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0.7323236781609426</v>
+        <v>-1.04615109139753</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>-0.4623116325792404</v>
+        <v>1.128551258127582</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-1.899358351963713</v>
+        <v>1.162145724348683</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.09347375950790969</v>
+        <v>-0.05397802664567426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.9302715464123723</v>
+        <v>0.3456621003562546</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.1584588187383063</v>
+        <v>-0.7964163172553123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.9843541485980002</v>
+        <v>0.7578266209632688</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.2104898713894054</v>
+        <v>0.7640752133806737</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.3878926126056124</v>
+        <v>-0.7379900849012827</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-1.495491715701065</v>
+        <v>-0.2709716509543623</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.685255070584581</v>
+        <v>-0.657848751982787</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-0.7794240003660822</v>
+        <v>-1.330458345864743</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>-0.9663541386970418</v>
+        <v>1.301699017469393</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.7177660394719592</v>
+        <v>-0.3998592380374302</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1.49995569590615</v>
+        <v>0.2469764631494545</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-1.08017233486652</v>
+        <v>0.0528029586646969</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.5900111472842022</v>
+        <v>1.235887209789653</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.01726437949701197</v>
+        <v>-0.1859316775553876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.0782087494318273</v>
+        <v>-0.5462460779966609</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-1.07421879775871</v>
+        <v>-1.330899637539643</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.4480203029123199</v>
+        <v>0.09193355377919793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1.876288017553619</v>
+        <v>0.0689589408321384</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.224205745133267</v>
+        <v>1.14822248644618</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.6181178889645886</v>
+        <v>-0.02673316302870259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-1.028752894871207</v>
+        <v>-0.6042986953124289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.1540715549487431</v>
+        <v>0.0591288447130256</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.4093067927722912</v>
+        <v>0.3225394594819236</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.2899394532898352</v>
+        <v>-2.582710955924031</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.9255481675324513</v>
+        <v>0.1330238540089059</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.512847676353668</v>
+        <v>-0.6141339451454926</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1.066224944972159</v>
+        <v>-0.3134648456892116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.9178880939328281</v>
+        <v>-3.223742999223552</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.1080244372834013</v>
+        <v>-1.724918246881975</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.5540659209104916</v>
+        <v>-1.046073820807021</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2.054541726436573</v>
+        <v>-0.03457196585446161</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.7089464241830619</v>
+        <v>0.9424242341987045</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.464839991395863</v>
+        <v>3.5502722827486</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.412490995319735</v>
+        <v>0.5901179792530657</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1.625687869573339</v>
+        <v>0.2001200495542912</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-2.788080325383982</v>
+        <v>-1.119953220167053</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.5562577649485767</v>
+        <v>0.784816734295872</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1.076910203642947</v>
+        <v>0.7844453867203252</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.790915035803732</v>
+        <v>0.319615211559522</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.511881978206633</v>
+        <v>0.09757419567441802</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.6606507629794787</v>
+        <v>0.3820502874716711</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.2951670930207461</v>
+        <v>1.293935622814031</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.2814129805710096</v>
+        <v>-0.2344658684192011</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-1.022912892189639</v>
+        <v>0.4111513402291012</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.7224881639387016</v>
+        <v>0.1289370355417741</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1.781776150506758</v>
+        <v>-0.5499027226639628</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.143663134341351</v>
+        <v>1.770474340977072</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.5561662728855955</v>
+        <v>0.5704491507462478</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.7042336746641259</v>
+        <v>-1.406673130026814</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.1273273879179805</v>
+        <v>0.04791359411975961</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.004552350619622</v>
+        <v>-2.158459222929187</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.6428588758408436</v>
+        <v>-0.4248161678144491</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.8551864472065447</v>
+        <v>0.8038426036064331</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.6824308330762351</v>
+        <v>-0.1346848784172529</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.01656869640381406</v>
+        <v>-1.262803150603834</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.01083881323703952</v>
+        <v>-2.186045428151521</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.8108385259336605</v>
+        <v>-0.493487780622683</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.07016997818684188</v>
+        <v>-0.6281765633174249</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>-2.01276263877312</v>
+        <v>0.1609163459859722</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-0.8701641763796962</v>
+        <v>0.2394513375081155</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.7298828087800537</v>
+        <v>-0.4823945983946058</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>-0.6272237100621399</v>
+        <v>-0.06447126727130742</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.9671059001300847</v>
+        <v>-1.406007791673811</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.1603844804909463</v>
+        <v>0.5033064793009275</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.023179897734944</v>
+        <v>0.04077744277731021</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1.1696817187027</v>
+        <v>-0.5076588140045596</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.1395989598177257</v>
+        <v>-2.869255573218231</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.627750871161111</v>
+        <v>1.550707693675201</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.09564727574008391</v>
+        <v>0.762991009476789</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.6619512251324586</v>
+        <v>-0.1684117879085394</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.04973403848346616</v>
+        <v>1.210067679758372</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.7234573604331017</v>
+        <v>0.6396382091528502</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.24550195893791</v>
+        <v>-0.8514040396947101</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.2394206016100816</v>
+        <v>1.822898245329654</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.07903682148170271</v>
+        <v>0.6839055537051517</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.2642815731742634</v>
+        <v>-0.4165000806864977</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.05020896749341817</v>
+        <v>-0.2359652503750345</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.6201582399047361</v>
+        <v>-0.4006128677765469</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.9352708095256365</v>
+        <v>0.6793719016879222</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>-0.05849730371611115</v>
+        <v>0.8526229807139211</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.1125630961673264</v>
+        <v>1.12005120310144</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>-0.681720839037018</v>
+        <v>0.4690736232505515</v>
       </c>
     </row>
   </sheetData>

--- a/tmp/test.xlsx
+++ b/tmp/test.xlsx
@@ -366,502 +366,502 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.7612433418221922</v>
+        <v>-1.327569774749644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.999386266755414</v>
+        <v>-0.7701950003820333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>-0.03092418987812458</v>
+        <v>-2.090584033856313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.1086844243807098</v>
+        <v>0.2375968652408709</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.07551842454637327</v>
+        <v>0.2762938928015517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.09421582915471732</v>
+        <v>0.02235542112549801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>-1.082462320999063</v>
+        <v>-0.3463306270123723</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.1576373073577497</v>
+        <v>-0.3847809381658455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.1921878897473422</v>
+        <v>-1.246329696887138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.2050943978265358</v>
+        <v>-2.261635516805723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.2754756345949099</v>
+        <v>-1.434909411481973</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-1.278355971378608</v>
+        <v>0.5642314765551874</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1.110244239486315</v>
+        <v>1.224985991538463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.5205698315601103</v>
+        <v>-0.1384701914296086</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-1.04615109139753</v>
+        <v>1.272085954864981</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1.128551258127582</v>
+        <v>-0.1761343525361175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.162145724348683</v>
+        <v>-0.468475090089105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.05397802664567426</v>
+        <v>-0.6447162778247347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.3456621003562546</v>
+        <v>-0.637091589705162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.7964163172553123</v>
+        <v>-0.5415171558015939</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.7578266209632688</v>
+        <v>0.0117947025207851</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.7640752133806737</v>
+        <v>-1.178927324034812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>-0.7379900849012827</v>
+        <v>1.289980711042241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.2709716509543623</v>
+        <v>0.2186153791793372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.657848751982787</v>
+        <v>1.696165975438432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>-1.330458345864743</v>
+        <v>-0.2603705361187372</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.301699017469393</v>
+        <v>-1.409905595093974</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>-0.3998592380374302</v>
+        <v>-1.342765110250556</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.2469764631494545</v>
+        <v>-0.7811224637383436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.0528029586646969</v>
+        <v>-1.711511961643285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1.235887209789653</v>
+        <v>-0.001770696010654743</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>-0.1859316775553876</v>
+        <v>0.4253934127654114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.5462460779966609</v>
+        <v>0.0979613298498935</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-1.330899637539643</v>
+        <v>-0.2051162644424573</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.09193355377919793</v>
+        <v>0.02064781784398232</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.0689589408321384</v>
+        <v>0.2774696522951809</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.14822248644618</v>
+        <v>1.682462634467245</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>-0.02673316302870259</v>
+        <v>-0.5825247281489647</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>-0.6042986953124289</v>
+        <v>0.7646905768992063</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.0591288447130256</v>
+        <v>0.4036532760750006</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.3225394594819236</v>
+        <v>1.39379648487975</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-2.582710955924031</v>
+        <v>-0.137631223907857</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.1330238540089059</v>
+        <v>-0.4158276331001988</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>-0.6141339451454926</v>
+        <v>-1.132604149701544</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>-0.3134648456892116</v>
+        <v>-0.6960768955420663</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-3.223742999223552</v>
+        <v>0.6127778152453357</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-1.724918246881975</v>
+        <v>0.4799359495436141</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>-1.046073820807021</v>
+        <v>1.111337392471598</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.03457196585446161</v>
+        <v>-1.654148121751377</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.9424242341987045</v>
+        <v>-0.9913750972529835</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>3.5502722827486</v>
+        <v>-0.2627945145634708</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.5901179792530657</v>
+        <v>1.12394602534667</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.2001200495542912</v>
+        <v>-1.23315045165566</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-1.119953220167053</v>
+        <v>-0.6294256345677267</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.784816734295872</v>
+        <v>0.06850014792773654</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.7844453867203252</v>
+        <v>0.1179165346405831</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.319615211559522</v>
+        <v>1.52448221929005</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.09757419567441802</v>
+        <v>0.3678178061105691</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.3820502874716711</v>
+        <v>-0.418941523591128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.293935622814031</v>
+        <v>0.5666651179504335</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>-0.2344658684192011</v>
+        <v>0.09684400639431345</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.4111513402291012</v>
+        <v>-1.267873526262119</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.1289370355417741</v>
+        <v>-0.8921018013427706</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-0.5499027226639628</v>
+        <v>-0.6331014160862748</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.770474340977072</v>
+        <v>-0.9238210365017169</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.5704491507462478</v>
+        <v>0.5394150109165976</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>-1.406673130026814</v>
+        <v>-0.07377160631194404</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.04791359411975961</v>
+        <v>0.08649457991078764</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>-2.158459222929187</v>
+        <v>0.2095576185085055</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.4248161678144491</v>
+        <v>-1.30920206957787</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.8038426036064331</v>
+        <v>-0.5680031362865915</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.1346848784172529</v>
+        <v>1.079838304216633</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>-1.262803150603834</v>
+        <v>0.9805266919732266</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-2.186045428151521</v>
+        <v>-0.505647373457898</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.493487780622683</v>
+        <v>-1.931806000288455</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.6281765633174249</v>
+        <v>0.1720075267115933</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.1609163459859722</v>
+        <v>-0.006217586861844411</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.2394513375081155</v>
+        <v>-1.349405684244886</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-0.4823945983946058</v>
+        <v>-1.13074719355861</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>-0.06447126727130742</v>
+        <v>-0.4226494563209769</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-1.406007791673811</v>
+        <v>1.308492821676796</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.5033064793009275</v>
+        <v>0.9503688792864067</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.04077744277731021</v>
+        <v>-1.610801994026397</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.5076588140045596</v>
+        <v>-1.489789058221275</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-2.869255573218231</v>
+        <v>-0.8518727010919778</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1.550707693675201</v>
+        <v>1.257413643176319</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.762991009476789</v>
+        <v>1.016144651275283</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>-0.1684117879085394</v>
+        <v>1.088335335843499</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1.210067679758372</v>
+        <v>0.448944989497622</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.6396382091528502</v>
+        <v>1.058565587028073</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>-0.8514040396947101</v>
+        <v>-1.895569157282805</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.822898245329654</v>
+        <v>-1.003258538300129</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.6839055537051517</v>
+        <v>1.328019012647908</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>-0.4165000806864977</v>
+        <v>-0.2826743490331929</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.2359652503750345</v>
+        <v>-0.01313280326609298</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.4006128677765469</v>
+        <v>1.249315290075776</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.6793719016879222</v>
+        <v>-0.06815753546053231</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.8526229807139211</v>
+        <v>1.425320267952084</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.12005120310144</v>
+        <v>-1.548603075597372</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.4690736232505515</v>
+        <v>-0.5707669995445241</v>
       </c>
     </row>
   </sheetData>
